--- a/Анализ_поставщ_Электрика и КИПиА_low_concentr.xlsx
+++ b/Анализ_поставщ_Электрика и КИПиА_low_concentr.xlsx
@@ -16,96 +16,747 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="434">
   <si>
     <t>Поставщик</t>
   </si>
   <si>
+    <t>OPTOM TRADE ООО</t>
+  </si>
+  <si>
+    <t>VIVA UNIVERSAL LINE ООО</t>
+  </si>
+  <si>
+    <t>LEADER ELECTRO TRADE ООО</t>
+  </si>
+  <si>
+    <t>ENERGOREMONT ЧП</t>
+  </si>
+  <si>
+    <t>ENERGOPRIBOR ООО</t>
+  </si>
+  <si>
+    <t>LAIMA LED ООО</t>
+  </si>
+  <si>
+    <t>MAXTRADEULGURJI ООО</t>
+  </si>
+  <si>
+    <t>VIDCOM ООО</t>
+  </si>
+  <si>
+    <t>не использовать UZELTEXPROM-MOTOROLA-TELEKOM-RADIO</t>
+  </si>
+  <si>
+    <t>ТЕПЛОВОДОМЕР АО</t>
+  </si>
+  <si>
+    <t>POWER ELECTRIC GROUP ООО</t>
+  </si>
+  <si>
+    <t>TECHNO COMMERCE ООО</t>
+  </si>
+  <si>
+    <t>HASANBOY-OTA BARAKA ООО</t>
+  </si>
+  <si>
+    <t>JIHOZVENT ООО</t>
+  </si>
+  <si>
+    <t>CHANDRA TASHKENT ООО</t>
+  </si>
+  <si>
+    <t>TESLA ELECTRICAL GROUP ООО</t>
+  </si>
+  <si>
+    <t>PETKAB SVG KABLO SANAYİ TİCARET LTD.ŞTİ.</t>
+  </si>
+  <si>
+    <t>ALAGEUM ELECTRIC TASH ООО</t>
+  </si>
+  <si>
+    <t>ЭНЕРГО ПЛЮС ООО</t>
+  </si>
+  <si>
+    <t>OK-SNAB ООО</t>
+  </si>
+  <si>
+    <t>INTER KABEL SERVIS ООО</t>
+  </si>
+  <si>
+    <t>PROFELEKTROSYSTEM ООО</t>
+  </si>
+  <si>
+    <t>ЕВРОСВЯЗЬ ООО</t>
+  </si>
+  <si>
+    <t>SHAMAL CORP ООО</t>
+  </si>
+  <si>
+    <t>HIGH VOLTAGE CABLE ООО</t>
+  </si>
+  <si>
+    <t>Zanotti S.p.a. Con Socio Unico</t>
+  </si>
+  <si>
+    <t>GREENTECH ООО</t>
+  </si>
+  <si>
+    <t>не использовать RAYELECTRO</t>
+  </si>
+  <si>
+    <t>TECHNO CABLE GROUP СП ООО</t>
+  </si>
+  <si>
+    <t>PROFESSIONAL TECHNOLOGIES ООО</t>
+  </si>
+  <si>
+    <t>ЭКСПОРТНАЯ СЕРВИСНАЯ КОМПАНИЯ ООО</t>
+  </si>
+  <si>
+    <t>BS&amp;B SAFETY SYSTEMS LIMITED</t>
+  </si>
+  <si>
+    <t>LS ELECTRIC CO LTD</t>
+  </si>
+  <si>
+    <t>ELECTRO LOGIC GROUP ООО</t>
+  </si>
+  <si>
+    <t>DAILY THERMETRICS</t>
+  </si>
+  <si>
+    <t>R.I.D. GmbH</t>
+  </si>
+  <si>
+    <t>AIR NED TRADE ИП ООО</t>
+  </si>
+  <si>
+    <t>ALFAMOTORS ООО</t>
+  </si>
+  <si>
+    <t>АРТЕМИДА ООО</t>
+  </si>
+  <si>
+    <t>SEVER MINERALS ИП ООО</t>
+  </si>
+  <si>
+    <t>YUYAO CHINEN TRADE CO. LTD</t>
+  </si>
+  <si>
+    <t>GARAND PROTECH ООО</t>
+  </si>
+  <si>
+    <t>KABEL BIZNES MARKAZ ООО</t>
+  </si>
+  <si>
+    <t>Etalon Engineering VKT ООО</t>
+  </si>
+  <si>
+    <t>PRIME-C ТОО</t>
+  </si>
+  <si>
+    <t>CANDLE LED ООО</t>
+  </si>
+  <si>
+    <t>НПК ТЕХНОПРОМ ООО</t>
+  </si>
+  <si>
+    <t>HAYAT POWER CABLE SYSTEMS ООО</t>
+  </si>
+  <si>
+    <t>LIDER TEAM ООО</t>
+  </si>
+  <si>
+    <t>RYU TRADING COMPANY</t>
+  </si>
+  <si>
+    <t>НЕРАЗРУШАЮЩИЙ КОНТРОЛЬ ООО</t>
+  </si>
+  <si>
+    <t>SYSTEM TRADE GROUP ЧП</t>
+  </si>
+  <si>
+    <t>UNTEL KABLOLARI SAN. TIC. A.S.</t>
+  </si>
+  <si>
+    <t>HILOOK ООО</t>
+  </si>
+  <si>
+    <t>STARLAB ООО</t>
+  </si>
+  <si>
+    <t>GLOBEL PRO ООО</t>
+  </si>
+  <si>
+    <t>MCQ COMPANY KZ ТОО</t>
+  </si>
+  <si>
+    <t>ТЕХЭЛЕКТРО-САМАРА ООО</t>
+  </si>
+  <si>
+    <t>SHENZHEN EASYBIYIC ELECTRONICS CO. LTD</t>
+  </si>
+  <si>
+    <t>SecureOne International BV</t>
+  </si>
+  <si>
+    <t>MUHID MAIN GROUP ООО</t>
+  </si>
+  <si>
+    <t>STANDART ENERGO MET ООО</t>
+  </si>
+  <si>
+    <t>ELECTRONICS AUTOMATION GROUP ООО</t>
+  </si>
+  <si>
+    <t>220 VOLT SALES ООО</t>
+  </si>
+  <si>
+    <t>MIRANKUL CONSTRUCTIONS LLC</t>
+  </si>
+  <si>
+    <t>YARMATOV BOBOMUROD MIRVALI O‘G‘LI ИП</t>
+  </si>
+  <si>
+    <t>HANGZHOU GORDON ELECTRIC CO. LTD</t>
+  </si>
+  <si>
+    <t>KANSLER ООО</t>
+  </si>
+  <si>
+    <t>PREMIUM COMPUTERS ООО</t>
+  </si>
+  <si>
+    <t>HONTECH SNAB ООО</t>
+  </si>
+  <si>
+    <t>ПРОЕКТ ВТС ООО</t>
+  </si>
+  <si>
+    <t>CITYNET ООО</t>
+  </si>
+  <si>
+    <t>MINING TECH ООО</t>
+  </si>
+  <si>
+    <t>MOBILE RETAIL ООО</t>
+  </si>
+  <si>
+    <t>ФЛЮИД-ЛАЙН ООО</t>
+  </si>
+  <si>
+    <t>ETS ENGINEERING TRASPORTO E SOLLEVAMENTO S.P.A.</t>
+  </si>
+  <si>
+    <t>NISHON GROUP PRODUCT ООО</t>
+  </si>
+  <si>
     <t>ТОО «KMICompany»</t>
   </si>
   <si>
-    <t>LIDER TEAM ООО</t>
+    <t>CHONGQING TIANBAO CONDUCTOR BUSBAR ELECTRICAL CO. LTD</t>
+  </si>
+  <si>
+    <t>WELKIN CLIMATE SOLUTIONS ООО</t>
+  </si>
+  <si>
+    <t>M-ELECTRO ООО</t>
+  </si>
+  <si>
+    <t>BROADCASTPRO TRADING ЧП</t>
+  </si>
+  <si>
+    <t>PRO ENERGY CONTROL ООО</t>
+  </si>
+  <si>
+    <t>RADIOCOM NET ООО</t>
+  </si>
+  <si>
+    <t>ТЕРРАЦИНК ООО</t>
+  </si>
+  <si>
+    <t>BEIJING YAHUA HONGRUI CHEMTECH LTD</t>
+  </si>
+  <si>
+    <t>NAVOI CABLE CONNECTOR ООО</t>
+  </si>
+  <si>
+    <t>ABS METAL MASTER</t>
+  </si>
+  <si>
+    <t>AKKUENERGO ООО</t>
+  </si>
+  <si>
+    <t>ARIT SICHERHEITSTECHNOLOGIEN GmbH</t>
+  </si>
+  <si>
+    <t>KAZAKHSTAN METAL INDUSTRIAL COMPANY-ALMATY ТОО</t>
+  </si>
+  <si>
+    <t>ВК СТРОЙ ООО</t>
+  </si>
+  <si>
+    <t>OOO QUALITY ELECTRONICS</t>
+  </si>
+  <si>
+    <t>ШИРОКИХ АЛЕКСАНДР НИКОЛАЕВИЧ ИП</t>
+  </si>
+  <si>
+    <t>KOPIS ООО</t>
+  </si>
+  <si>
+    <t>VIVA ONLINE GROUP ООО</t>
+  </si>
+  <si>
+    <t>MIRANKUL CONSTRUCTION MATERIALS LTD ООО</t>
+  </si>
+  <si>
+    <t>УРАЛМЕТХОЛДИНГ ООО</t>
+  </si>
+  <si>
+    <t>ENERGOKOMPENSATOR-SISTEM ООО</t>
+  </si>
+  <si>
+    <t>KABEL TECH ENERGY ООО</t>
+  </si>
+  <si>
+    <t>ЭКСПЕРИМЕНТАЛЬНОЕ СПЕЦИАЛЬНОЕ ПРОЕКТНО-КОНСТРУКТОРСКОЕ БЮРО ТЕХНО АО</t>
+  </si>
+  <si>
+    <t>FACTORY OF TECHNOLOGIES ООО</t>
+  </si>
+  <si>
+    <t>SUPER POWER NEW ENERGY ООО</t>
+  </si>
+  <si>
+    <t>ЭЗРА ООО</t>
+  </si>
+  <si>
+    <t>ЧП BulatGRoups</t>
+  </si>
+  <si>
+    <t>DIAMOND ENERGY ООО</t>
+  </si>
+  <si>
+    <t>TIAMON ООО</t>
+  </si>
+  <si>
+    <t>ELCAB ООО</t>
+  </si>
+  <si>
+    <t>BIRJA SERVIS TEXNO LITE ООО</t>
+  </si>
+  <si>
+    <t>ESS ELECTRICAL SOLUTION ООО</t>
+  </si>
+  <si>
+    <t>ГРАНДСОФТ ООО</t>
+  </si>
+  <si>
+    <t>OMNI SYSTEM ООО</t>
+  </si>
+  <si>
+    <t>САРАНСКАЯ СВЕТОТЕХНИЧЕСКАЯ КОМПАНИЯ ООО</t>
+  </si>
+  <si>
+    <t>ULTRA PLAST ООО</t>
+  </si>
+  <si>
+    <t>UTAB TRUST ALLIANCE ООО</t>
+  </si>
+  <si>
+    <t>не использовать дубль MA’NO NOVAPROJECT</t>
+  </si>
+  <si>
+    <t>DREAM-ALLIANCE ООО</t>
+  </si>
+  <si>
+    <t>VOLT'A ООО</t>
+  </si>
+  <si>
+    <t>ИК ПЕЛЕНГ ООО</t>
+  </si>
+  <si>
+    <t>KROHNE CA ТОО</t>
+  </si>
+  <si>
+    <t>EUROTEX KAPITAL ООО</t>
+  </si>
+  <si>
+    <t>KAMOL SYSTEM SERVICE ЧП</t>
+  </si>
+  <si>
+    <t>ELEKTRORESHENIYA ООО</t>
+  </si>
+  <si>
+    <t>NZMK KONSTRUKTIV СП</t>
+  </si>
+  <si>
+    <t>POWER TECHNOLOGIES ООО</t>
   </si>
   <si>
     <t>FUSUNKOR ООО</t>
   </si>
   <si>
+    <t>MEGA LIGHTING DISTRIBUTION ЧП</t>
+  </si>
+  <si>
+    <t>FLEX IT TECHNOLOGY ООО</t>
+  </si>
+  <si>
+    <t>Не использовать дубль MEGA ELECTRO ЧП</t>
+  </si>
+  <si>
+    <t>AZIAELEKTROENERGIYA YUKSALISH ООО</t>
+  </si>
+  <si>
+    <t>RAKOTIS ООО</t>
+  </si>
+  <si>
+    <t>не использовать Энергоремонт ЧП</t>
+  </si>
+  <si>
+    <t>OOO SITAN MCHJ</t>
+  </si>
+  <si>
     <t>SPETS ENERGIYA TRANS ООО</t>
   </si>
   <si>
-    <t>MEGA LIGHTING DISTRIBUTION ЧП</t>
+    <t>DEK ELEKTRO ООО</t>
+  </si>
+  <si>
+    <t>XB-ELECTRICAL ООО</t>
+  </si>
+  <si>
+    <t>TEKTECH TASHKENT ООО</t>
+  </si>
+  <si>
+    <t>ENESSES ООО</t>
+  </si>
+  <si>
+    <t>VITA BUILD ООО</t>
+  </si>
+  <si>
+    <t>НАУЧНО-ПРОИЗВОДСТВЕННОЕ ПРЕДПРИЯТИЕ АВТОМАТИКА-А ООО</t>
+  </si>
+  <si>
+    <t>METROLOGIYA ILMIY MARKAZI ООО</t>
+  </si>
+  <si>
+    <t>EVROTEX-SERVIS ООО</t>
+  </si>
+  <si>
+    <t>ENERGOUSKUNATA`MINOT ООО</t>
   </si>
   <si>
     <t>PROCESS PROGRAM ООО</t>
   </si>
   <si>
+    <t>CRANE-ASIA ООО</t>
+  </si>
+  <si>
+    <t>Unique Energy</t>
+  </si>
+  <si>
+    <t>не использовать DREAM-ALLIANCE</t>
+  </si>
+  <si>
     <t>ВЕЛДПРОМ ООО</t>
   </si>
   <si>
+    <t>Не использовать ENERGO-REMONT ЧП</t>
+  </si>
+  <si>
+    <t>ООО ТЭТМ</t>
+  </si>
+  <si>
+    <t>INFINITY ENERGY ООО</t>
+  </si>
+  <si>
+    <t>OOO «UNIVERSAL ALLIANCE COMPANY»</t>
+  </si>
+  <si>
+    <t>PROCAB СП ООО</t>
+  </si>
+  <si>
     <t>TURBOSERV MIDDLE EAST FZC</t>
   </si>
   <si>
-    <t>POWER ELECTRIC GROUP ООО</t>
-  </si>
-  <si>
-    <t>Не использовать ENERGO-REMONT ЧП</t>
+    <t>UNIVERSAL ALLIANCE COMPANY ООО</t>
+  </si>
+  <si>
+    <t>ООО "EUROLUX"</t>
+  </si>
+  <si>
+    <t>JETPORT UNIVERSAL ООО</t>
+  </si>
+  <si>
+    <t>TBS Inform, ООО</t>
+  </si>
+  <si>
+    <t>DREAM ELECTRIC TRADE ООО</t>
   </si>
   <si>
     <t>TERMO-STYLE ООО</t>
   </si>
   <si>
+    <t>ООО «Sitan»</t>
+  </si>
+  <si>
     <t>INSMET SYSTEM ООО</t>
   </si>
   <si>
+    <t>HWASAL LTD</t>
+  </si>
+  <si>
+    <t>RADIOCOM ООО</t>
+  </si>
+  <si>
+    <t>ELEKTRONASBOBBUTLASH ООО</t>
+  </si>
+  <si>
+    <t>ООО "ПСС" ЭКСПОРТ"</t>
+  </si>
+  <si>
+    <t>ЭХЗ ЦЕНТР КУБАНЬ ООО</t>
+  </si>
+  <si>
+    <t>TEXENERGO TRANS ООО</t>
+  </si>
+  <si>
+    <t>Megger</t>
+  </si>
+  <si>
+    <t>СП ООО "PROCAB"</t>
+  </si>
+  <si>
+    <t>Leader Elektro trade&lt;не использовать&gt;</t>
+  </si>
+  <si>
+    <t>Не использовать MA’NO NOVAPROJECT ООО</t>
+  </si>
+  <si>
+    <t>KAZPROM AVTOMATIKA ТОО</t>
+  </si>
+  <si>
+    <t>ООО ЭНЕРГОРЕМОНТ</t>
+  </si>
+  <si>
     <t>Mega Lightning Distribution</t>
   </si>
   <si>
-    <t>ELECTRO LOGIC GROUP ООО</t>
-  </si>
-  <si>
-    <t>XB-ELECTRICAL ООО</t>
+    <t>КОМПАНИЯ РИТЕХНИКС ООО</t>
+  </si>
+  <si>
+    <t>ООО «IKLIM»</t>
+  </si>
+  <si>
+    <t>ЧП Electro Max Group</t>
+  </si>
+  <si>
+    <t>OOO " NUR-EL BUSINESS "</t>
+  </si>
+  <si>
+    <t>NUR-EL BIZNES ООО</t>
   </si>
   <si>
     <t>OYDIN ELECTRIC ООО</t>
   </si>
   <si>
-    <t>PROCAB СП ООО</t>
+    <t>SAMGREAT EVOLUTION ООО</t>
+  </si>
+  <si>
+    <t>AZIA ELEKTROIZOLYATOR ООО</t>
+  </si>
+  <si>
+    <t>Не использовать ARMATURNO-IZOLYATORNIY ZAVOD ООО</t>
+  </si>
+  <si>
+    <t>OOO Birjaservice taminot</t>
+  </si>
+  <si>
+    <t>OSIYO KABEL ООО</t>
+  </si>
+  <si>
+    <t>Linkmaster Kazakhstan</t>
+  </si>
+  <si>
+    <t>КАБЕЛЬ-ПРАЙС ООО</t>
   </si>
   <si>
     <t>ЭНЕРГОСКАН ТОО</t>
   </si>
   <si>
+    <t>TC-GAS ООО</t>
+  </si>
+  <si>
     <t>ООО "HIMLABPRIBOR"</t>
   </si>
   <si>
-    <t>TECHNO CABLE GROUP СП ООО</t>
-  </si>
-  <si>
-    <t>KABEL BIZNES MARKAZ ООО</t>
-  </si>
-  <si>
-    <t>OPTOM TRADE ООО</t>
-  </si>
-  <si>
-    <t>M-ELECTRO ООО</t>
-  </si>
-  <si>
-    <t>PROFELEKTROSYSTEM ООО</t>
-  </si>
-  <si>
-    <t>ООО «IKLIM»</t>
+    <t>ООО "ЭЛЕКТРОСИСТЕМ"</t>
+  </si>
+  <si>
+    <t>АСПТ СПЕЦАВТОМАТИКА</t>
+  </si>
+  <si>
+    <t>ТОО "ВИКА Казахстан" (WIKA Alexander Wiegand SE &amp; Co. KG)</t>
+  </si>
+  <si>
+    <t>OOO "Nur-el Biznes"</t>
+  </si>
+  <si>
+    <t>VIANET TELEKOMUNIKASYON ILETISIM HIZMETLERI TICARET A.S</t>
+  </si>
+  <si>
+    <t>WIMAX TRIM ООО</t>
+  </si>
+  <si>
+    <t>ООО "Mega Elektro"</t>
+  </si>
+  <si>
+    <t>Nur-el-biznes</t>
+  </si>
+  <si>
+    <t>ПСС ЭКСПОРТ ООО</t>
+  </si>
+  <si>
+    <t>ULTIMA PANEL ООО</t>
+  </si>
+  <si>
+    <t>IKLIM-ENGINEERING ООО</t>
+  </si>
+  <si>
+    <t>ООО «Холдинг Кабельный Альянс»</t>
+  </si>
+  <si>
+    <t>OOO Birjaservista'minot&lt;не использовать&gt;</t>
+  </si>
+  <si>
+    <t>OOO "Ultra Plast"</t>
+  </si>
+  <si>
+    <t>ЭРИДАН АО</t>
+  </si>
+  <si>
+    <t>ЧПП "ПГС"</t>
+  </si>
+  <si>
+    <t>ООО «ЭХЗ ЦЕНТР Экспорт»</t>
+  </si>
+  <si>
+    <t>ENELTEC SHANGHAI CO. LTD</t>
+  </si>
+  <si>
+    <t>ООО "SHAMAL CORP"</t>
+  </si>
+  <si>
+    <t>ELEKTROFAN ООО</t>
+  </si>
+  <si>
+    <t>ТЕХИНДУСТРИЯ ООО</t>
+  </si>
+  <si>
+    <t>MAINSTOCK TECHNOLOGY ООО</t>
+  </si>
+  <si>
+    <t>РУССКИЙ СВЕТ ООО</t>
+  </si>
+  <si>
+    <t>ООО ПСС ЭКСПОРТ</t>
+  </si>
+  <si>
+    <t>MONOHROM ЧП</t>
+  </si>
+  <si>
+    <t>ENTER STEEL ПИИ ООО</t>
+  </si>
+  <si>
+    <t>HOLLYSYS (ASIA PACIFIC) PTE. LTD</t>
+  </si>
+  <si>
+    <t>Не использовать МАНОТОМЬ ООО</t>
+  </si>
+  <si>
+    <t>UNIKA UNIVERSAL KABLO SAN. TIC. A.S.</t>
+  </si>
+  <si>
+    <t>ANHUI TIANKANG (GROUP) SHARES CO. LTD</t>
+  </si>
+  <si>
+    <t>ULTIMA ООО</t>
+  </si>
+  <si>
+    <t>ALGA SUPPLY ТОО</t>
+  </si>
+  <si>
+    <t>ИП ООО "NAVOI CABLE CONNECTOR"</t>
+  </si>
+  <si>
+    <t>OOO "SHALBU BUILD"</t>
+  </si>
+  <si>
+    <t>ООО «Энерго Плюс» Горлтех</t>
+  </si>
+  <si>
+    <t>ARK BULOQ PLUS ООО</t>
+  </si>
+  <si>
+    <t>SAM SPUTNIK STS СП</t>
+  </si>
+  <si>
+    <t>XI'AN XICHI ELECTRIC INTERNATIONAL CO. LTD</t>
+  </si>
+  <si>
+    <t>ЗАО "НПП "Автоматика"</t>
   </si>
   <si>
     <t>PI CONTROLS INSTRUMENTS PVT. LTD</t>
   </si>
   <si>
-    <t>ARK BULOQ PLUS ООО</t>
-  </si>
-  <si>
-    <t>TESLA ELECTRICAL GROUP ООО</t>
-  </si>
-  <si>
-    <t>LEADER ELECTRO TRADE ООО</t>
+    <t>LIAONING CREATE CABLE CO. LTD</t>
+  </si>
+  <si>
+    <t>SAILUOKE FLUID EQUIPMENT INC</t>
+  </si>
+  <si>
+    <t>KEYIL (SHANGHAI) INTELLIGENT INSTRUMENT CO. LTD</t>
+  </si>
+  <si>
+    <t>ALTUSA UAB</t>
+  </si>
+  <si>
+    <t>PEOPLE'S CABLE GROUP CO. LTD</t>
+  </si>
+  <si>
+    <t>ТЕПЛОСЕРВИС ООО</t>
+  </si>
+  <si>
+    <t>СПЕЦИАЛЬНАЯ МЕТАЛЛУРГИЯ-АЛМАТА ТОО</t>
+  </si>
+  <si>
+    <t>NEWEK INDUSTRY CO ООО</t>
+  </si>
+  <si>
+    <t>TECHNOSOLUTIONS ООО</t>
+  </si>
+  <si>
+    <t>GIDRANT GLOBUS SERVIS ЧП</t>
+  </si>
+  <si>
+    <t>FALKON WINDOW TRADE ООО</t>
+  </si>
+  <si>
+    <t>VELLEZER UNITED ООО</t>
+  </si>
+  <si>
+    <t>РИТехникс (Transenergo)</t>
+  </si>
+  <si>
+    <t>SHTAR SYSTEM ООО</t>
+  </si>
+  <si>
+    <t>Shanghai Shenghua Cable Group</t>
   </si>
   <si>
     <t>WOSEN LIGHTING TECHNOLOGY LTD</t>
@@ -114,10 +765,22 @@
     <t>MING FENG LIGHTING CO. LTD</t>
   </si>
   <si>
-    <t>VELLEZER UNITED ООО</t>
-  </si>
-  <si>
-    <t>RADIOCOM ООО</t>
+    <t>BEKTEMIR METALL KONSTRUKSIYALARI СП ООО</t>
+  </si>
+  <si>
+    <t>VOLTAMPER ООО</t>
+  </si>
+  <si>
+    <t>NANTONG ROKE FLUID EQUIPMENT CO. LTD</t>
+  </si>
+  <si>
+    <t>ООО «Компания СМД»</t>
+  </si>
+  <si>
+    <t>AVENTOS ООО</t>
+  </si>
+  <si>
+    <t>EMIRATES PHOTO MARKETING LLC</t>
   </si>
   <si>
     <t>counterparty_name</t>
@@ -129,43 +792,373 @@
     <t>years_with_company</t>
   </si>
   <si>
-    <t>3,74</t>
-  </si>
-  <si>
-    <t>3,24</t>
-  </si>
-  <si>
-    <t>3,10</t>
+    <t>5,07</t>
+  </si>
+  <si>
+    <t>5,05</t>
+  </si>
+  <si>
+    <t>5,04</t>
+  </si>
+  <si>
+    <t>5,03</t>
+  </si>
+  <si>
+    <t>5,02</t>
+  </si>
+  <si>
+    <t>4,96</t>
+  </si>
+  <si>
+    <t>4,93</t>
+  </si>
+  <si>
+    <t>4,92</t>
+  </si>
+  <si>
+    <t>4,91</t>
+  </si>
+  <si>
+    <t>4,89</t>
+  </si>
+  <si>
+    <t>4,85</t>
+  </si>
+  <si>
+    <t>4,84</t>
+  </si>
+  <si>
+    <t>4,82</t>
+  </si>
+  <si>
+    <t>4,79</t>
+  </si>
+  <si>
+    <t>4,78</t>
+  </si>
+  <si>
+    <t>4,73</t>
+  </si>
+  <si>
+    <t>4,72</t>
+  </si>
+  <si>
+    <t>4,70</t>
+  </si>
+  <si>
+    <t>4,67</t>
+  </si>
+  <si>
+    <t>4,66</t>
+  </si>
+  <si>
+    <t>4,64</t>
+  </si>
+  <si>
+    <t>4,61</t>
+  </si>
+  <si>
+    <t>4,59</t>
+  </si>
+  <si>
+    <t>4,52</t>
+  </si>
+  <si>
+    <t>4,49</t>
+  </si>
+  <si>
+    <t>4,45</t>
+  </si>
+  <si>
+    <t>4,44</t>
+  </si>
+  <si>
+    <t>4,39</t>
+  </si>
+  <si>
+    <t>4,38</t>
+  </si>
+  <si>
+    <t>4,37</t>
+  </si>
+  <si>
+    <t>4,36</t>
+  </si>
+  <si>
+    <t>4,32</t>
+  </si>
+  <si>
+    <t>4,30</t>
+  </si>
+  <si>
+    <t>4,28</t>
+  </si>
+  <si>
+    <t>4,27</t>
+  </si>
+  <si>
+    <t>4,26</t>
+  </si>
+  <si>
+    <t>4,25</t>
+  </si>
+  <si>
+    <t>4,23</t>
+  </si>
+  <si>
+    <t>4,22</t>
+  </si>
+  <si>
+    <t>4,21</t>
+  </si>
+  <si>
+    <t>4,20</t>
+  </si>
+  <si>
+    <t>4,19</t>
+  </si>
+  <si>
+    <t>4,18</t>
+  </si>
+  <si>
+    <t>4,15</t>
+  </si>
+  <si>
+    <t>4,12</t>
+  </si>
+  <si>
+    <t>4,11</t>
+  </si>
+  <si>
+    <t>4,09</t>
+  </si>
+  <si>
+    <t>4,08</t>
+  </si>
+  <si>
+    <t>4,07</t>
+  </si>
+  <si>
+    <t>4,03</t>
+  </si>
+  <si>
+    <t>4,01</t>
+  </si>
+  <si>
+    <t>4,00</t>
+  </si>
+  <si>
+    <t>3,96</t>
+  </si>
+  <si>
+    <t>3,94</t>
+  </si>
+  <si>
+    <t>3,93</t>
+  </si>
+  <si>
+    <t>3,92</t>
+  </si>
+  <si>
+    <t>3,90</t>
+  </si>
+  <si>
+    <t>3,89</t>
+  </si>
+  <si>
+    <t>3,88</t>
+  </si>
+  <si>
+    <t>3,87</t>
+  </si>
+  <si>
+    <t>3,84</t>
+  </si>
+  <si>
+    <t>3,83</t>
+  </si>
+  <si>
+    <t>3,82</t>
+  </si>
+  <si>
+    <t>3,81</t>
+  </si>
+  <si>
+    <t>3,76</t>
+  </si>
+  <si>
+    <t>3,71</t>
+  </si>
+  <si>
+    <t>3,69</t>
+  </si>
+  <si>
+    <t>3,68</t>
+  </si>
+  <si>
+    <t>3,67</t>
+  </si>
+  <si>
+    <t>3,66</t>
+  </si>
+  <si>
+    <t>3,65</t>
+  </si>
+  <si>
+    <t>3,63</t>
+  </si>
+  <si>
+    <t>3,61</t>
+  </si>
+  <si>
+    <t>3,59</t>
+  </si>
+  <si>
+    <t>3,58</t>
+  </si>
+  <si>
+    <t>3,57</t>
+  </si>
+  <si>
+    <t>3,55</t>
+  </si>
+  <si>
+    <t>3,50</t>
+  </si>
+  <si>
+    <t>3,48</t>
+  </si>
+  <si>
+    <t>3,46</t>
+  </si>
+  <si>
+    <t>3,44</t>
+  </si>
+  <si>
+    <t>3,43</t>
+  </si>
+  <si>
+    <t>3,42</t>
+  </si>
+  <si>
+    <t>3,41</t>
+  </si>
+  <si>
+    <t>3,39</t>
+  </si>
+  <si>
+    <t>3,38</t>
+  </si>
+  <si>
+    <t>3,34</t>
+  </si>
+  <si>
+    <t>3,33</t>
+  </si>
+  <si>
+    <t>3,32</t>
+  </si>
+  <si>
+    <t>3,28</t>
+  </si>
+  <si>
+    <t>3,23</t>
+  </si>
+  <si>
+    <t>3,21</t>
+  </si>
+  <si>
+    <t>3,19</t>
+  </si>
+  <si>
+    <t>3,16</t>
+  </si>
+  <si>
+    <t>3,15</t>
+  </si>
+  <si>
+    <t>3,13</t>
+  </si>
+  <si>
+    <t>3,06</t>
+  </si>
+  <si>
+    <t>3,05</t>
+  </si>
+  <si>
+    <t>3,04</t>
+  </si>
+  <si>
+    <t>3,03</t>
   </si>
   <si>
     <t>2,99</t>
   </si>
   <si>
+    <t>2,98</t>
+  </si>
+  <si>
     <t>2,95</t>
   </si>
   <si>
-    <t>2,90</t>
-  </si>
-  <si>
-    <t>2,89</t>
+    <t>2,93</t>
   </si>
   <si>
     <t>2,88</t>
   </si>
   <si>
-    <t>2,84</t>
-  </si>
-  <si>
-    <t>2,63</t>
+    <t>2,87</t>
+  </si>
+  <si>
+    <t>2,83</t>
+  </si>
+  <si>
+    <t>2,81</t>
+  </si>
+  <si>
+    <t>2,80</t>
+  </si>
+  <si>
+    <t>2,79</t>
+  </si>
+  <si>
+    <t>2,77</t>
+  </si>
+  <si>
+    <t>2,76</t>
+  </si>
+  <si>
+    <t>2,75</t>
+  </si>
+  <si>
+    <t>2,71</t>
+  </si>
+  <si>
+    <t>2,68</t>
+  </si>
+  <si>
+    <t>2,67</t>
+  </si>
+  <si>
+    <t>2,66</t>
+  </si>
+  <si>
+    <t>2,64</t>
   </si>
   <si>
     <t>2,61</t>
   </si>
   <si>
+    <t>2,60</t>
+  </si>
+  <si>
     <t>2,59</t>
   </si>
   <si>
-    <t>2,48</t>
+    <t>2,58</t>
+  </si>
+  <si>
+    <t>2,47</t>
   </si>
   <si>
     <t>2,46</t>
@@ -174,43 +1167,142 @@
     <t>2,45</t>
   </si>
   <si>
+    <t>2,44</t>
+  </si>
+  <si>
+    <t>2,43</t>
+  </si>
+  <si>
+    <t>2,42</t>
+  </si>
+  <si>
+    <t>2,37</t>
+  </si>
+  <si>
+    <t>2,36</t>
+  </si>
+  <si>
+    <t>2,35</t>
+  </si>
+  <si>
+    <t>2,34</t>
+  </si>
+  <si>
     <t>2,30</t>
   </si>
   <si>
-    <t>2,28</t>
-  </si>
-  <si>
-    <t>2,24</t>
-  </si>
-  <si>
-    <t>2,22</t>
+    <t>2,29</t>
+  </si>
+  <si>
+    <t>2,27</t>
+  </si>
+  <si>
+    <t>2,26</t>
+  </si>
+  <si>
+    <t>2,25</t>
+  </si>
+  <si>
+    <t>2,23</t>
   </si>
   <si>
     <t>2,21</t>
   </si>
   <si>
-    <t>2,20</t>
-  </si>
-  <si>
-    <t>2,09</t>
-  </si>
-  <si>
-    <t>2,03</t>
-  </si>
-  <si>
-    <t>1,03</t>
-  </si>
-  <si>
-    <t>1,02</t>
-  </si>
-  <si>
-    <t>0,95</t>
-  </si>
-  <si>
-    <t>0,94</t>
-  </si>
-  <si>
-    <t>0,92</t>
+    <t>2,19</t>
+  </si>
+  <si>
+    <t>2,17</t>
+  </si>
+  <si>
+    <t>2,16</t>
+  </si>
+  <si>
+    <t>2,15</t>
+  </si>
+  <si>
+    <t>2,12</t>
+  </si>
+  <si>
+    <t>2,10</t>
+  </si>
+  <si>
+    <t>2,08</t>
+  </si>
+  <si>
+    <t>1,96</t>
+  </si>
+  <si>
+    <t>1,92</t>
+  </si>
+  <si>
+    <t>1,91</t>
+  </si>
+  <si>
+    <t>1,85</t>
+  </si>
+  <si>
+    <t>1,82</t>
+  </si>
+  <si>
+    <t>1,79</t>
+  </si>
+  <si>
+    <t>1,75</t>
+  </si>
+  <si>
+    <t>1,73</t>
+  </si>
+  <si>
+    <t>1,50</t>
+  </si>
+  <si>
+    <t>1,28</t>
+  </si>
+  <si>
+    <t>1,27</t>
+  </si>
+  <si>
+    <t>1,20</t>
+  </si>
+  <si>
+    <t>1,19</t>
+  </si>
+  <si>
+    <t>1,15</t>
+  </si>
+  <si>
+    <t>1,12</t>
+  </si>
+  <si>
+    <t>1,10</t>
+  </si>
+  <si>
+    <t>1,08</t>
+  </si>
+  <si>
+    <t>1,07</t>
+  </si>
+  <si>
+    <t>1,05</t>
+  </si>
+  <si>
+    <t>1,01</t>
+  </si>
+  <si>
+    <t>0,93</t>
+  </si>
+  <si>
+    <t>0,91</t>
+  </si>
+  <si>
+    <t>0,82</t>
+  </si>
+  <si>
+    <t>0,28</t>
+  </si>
+  <si>
+    <t>0,25</t>
   </si>
   <si>
     <t>Количество поставщиков</t>
@@ -222,10 +1314,10 @@
     <t>Стандартное отклонение цен</t>
   </si>
   <si>
-    <t>41737.44</t>
-  </si>
-  <si>
-    <t>3769.486825</t>
+    <t>33246.39</t>
+  </si>
+  <si>
+    <t>7600.181806</t>
   </si>
 </sst>
 </file>
@@ -587,7 +1679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -763,6 +1855,1111 @@
         <v>33</v>
       </c>
     </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -770,7 +2967,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C255"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -778,376 +2975,2807 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>255</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>256</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>44427</v>
+        <v>43999</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44610</v>
+        <v>44005</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>44658</v>
+        <v>44011</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>44701</v>
+        <v>44014</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>44715</v>
+        <v>44015</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>44734</v>
+        <v>44039</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>44735</v>
+        <v>44048</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>44741</v>
+        <v>44055</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
-        <v>44756</v>
+        <v>44057</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>44832</v>
+        <v>44063</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>44838</v>
+        <v>44078</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>44845</v>
+        <v>44084</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>44845</v>
+        <v>44088</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2">
-        <v>44887</v>
+        <v>44090</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>44894</v>
+        <v>44099</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>44896</v>
+        <v>44103</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
-        <v>44950</v>
+        <v>44103</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>44957</v>
+        <v>44103</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
-        <v>44972</v>
+        <v>44123</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2">
-        <v>44979</v>
+        <v>44124</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>44981</v>
+        <v>44127</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>44985</v>
+        <v>44134</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2">
-        <v>44987</v>
+        <v>44134</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2">
-        <v>45027</v>
+        <v>44146</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2">
-        <v>45050</v>
+        <v>44147</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2">
-        <v>45414</v>
+        <v>44154</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B28" s="2">
-        <v>45418</v>
+        <v>44166</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2">
-        <v>45446</v>
+        <v>44172</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>45446</v>
+        <v>44201</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>45446</v>
+        <v>44209</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2">
-        <v>45449</v>
+        <v>44211</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2">
-        <v>45456</v>
+        <v>44223</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44224</v>
+      </c>
+      <c r="C34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44227</v>
+      </c>
+      <c r="C35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44245</v>
+      </c>
+      <c r="C36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44245</v>
+      </c>
+      <c r="C37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44246</v>
+      </c>
+      <c r="C38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44250</v>
+      </c>
+      <c r="C39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44250</v>
+      </c>
+      <c r="C40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44253</v>
+      </c>
+      <c r="C41" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44253</v>
+      </c>
+      <c r="C42" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44257</v>
+      </c>
+      <c r="C43" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C44" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44278</v>
+      </c>
+      <c r="C45" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44281</v>
+      </c>
+      <c r="C46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C47" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44288</v>
+      </c>
+      <c r="C48" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44292</v>
+      </c>
+      <c r="C49" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44292</v>
+      </c>
+      <c r="C50" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44293</v>
+      </c>
+      <c r="C51" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44295</v>
+      </c>
+      <c r="C52" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44298</v>
+      </c>
+      <c r="C53" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44306</v>
+      </c>
+      <c r="C54" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44309</v>
+      </c>
+      <c r="C55" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44312</v>
+      </c>
+      <c r="C56" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44312</v>
+      </c>
+      <c r="C57" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44312</v>
+      </c>
+      <c r="C58" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44316</v>
+      </c>
+      <c r="C59" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44320</v>
+      </c>
+      <c r="C60" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44321</v>
+      </c>
+      <c r="C61" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="2">
+        <v>44323</v>
+      </c>
+      <c r="C62" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="2">
+        <v>44334</v>
+      </c>
+      <c r="C63" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44335</v>
+      </c>
+      <c r="C64" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="2">
+        <v>44347</v>
+      </c>
+      <c r="C65" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="2">
+        <v>44350</v>
+      </c>
+      <c r="C66" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" s="2">
+        <v>44350</v>
+      </c>
+      <c r="C67" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" s="2">
+        <v>44355</v>
+      </c>
+      <c r="C68" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="2">
+        <v>44358</v>
+      </c>
+      <c r="C69" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B70" s="2">
+        <v>44363</v>
+      </c>
+      <c r="C70" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="2">
+        <v>44379</v>
+      </c>
+      <c r="C71" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="2">
+        <v>44384</v>
+      </c>
+      <c r="C72" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="2">
+        <v>44385</v>
+      </c>
+      <c r="C73" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2">
+        <v>44386</v>
+      </c>
+      <c r="C74" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="2">
+        <v>44389</v>
+      </c>
+      <c r="C75" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="2">
+        <v>44404</v>
+      </c>
+      <c r="C76" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" s="2">
+        <v>44410</v>
+      </c>
+      <c r="C77" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
+        <v>44414</v>
+      </c>
+      <c r="C78" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="2">
+        <v>44420</v>
+      </c>
+      <c r="C79" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80" s="2">
+        <v>44424</v>
+      </c>
+      <c r="C80" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="2">
+        <v>44424</v>
+      </c>
+      <c r="C81" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="2">
+        <v>44425</v>
+      </c>
+      <c r="C82" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="2">
+        <v>44425</v>
+      </c>
+      <c r="C83" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="2">
+        <v>44428</v>
+      </c>
+      <c r="C84" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" s="2">
+        <v>44432</v>
+      </c>
+      <c r="C85" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>74</v>
+      </c>
+      <c r="B86" s="2">
+        <v>44433</v>
+      </c>
+      <c r="C86" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" s="2">
+        <v>44435</v>
+      </c>
+      <c r="C87" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="2">
+        <v>44447</v>
+      </c>
+      <c r="C88" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="2">
+        <v>44452</v>
+      </c>
+      <c r="C89" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" s="2">
+        <v>44454</v>
+      </c>
+      <c r="C90" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2">
+        <v>44459</v>
+      </c>
+      <c r="C91" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="2">
+        <v>44475</v>
+      </c>
+      <c r="C92" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" s="2">
+        <v>44496</v>
+      </c>
+      <c r="C93" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" s="2">
+        <v>44503</v>
+      </c>
+      <c r="C94" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>90</v>
+      </c>
+      <c r="B95" s="2">
+        <v>44503</v>
+      </c>
+      <c r="C95" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" s="2">
+        <v>44505</v>
+      </c>
+      <c r="C96" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" s="2">
+        <v>44508</v>
+      </c>
+      <c r="C97" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" s="2">
+        <v>44508</v>
+      </c>
+      <c r="C98" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="2">
+        <v>44510</v>
+      </c>
+      <c r="C99" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" s="2">
+        <v>44512</v>
+      </c>
+      <c r="C100" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101" s="2">
+        <v>44515</v>
+      </c>
+      <c r="C101" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>85</v>
+      </c>
+      <c r="B102" s="2">
+        <v>44517</v>
+      </c>
+      <c r="C102" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" s="2">
+        <v>44524</v>
+      </c>
+      <c r="C103" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>94</v>
+      </c>
+      <c r="B104" s="2">
+        <v>44524</v>
+      </c>
+      <c r="C104" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2">
+        <v>44530</v>
+      </c>
+      <c r="C105" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106" s="2">
+        <v>44531</v>
+      </c>
+      <c r="C106" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" s="2">
+        <v>44540</v>
+      </c>
+      <c r="C107" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="2">
+        <v>44544</v>
+      </c>
+      <c r="C108" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="2">
+        <v>44545</v>
+      </c>
+      <c r="C109" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>106</v>
+      </c>
+      <c r="B110" s="2">
+        <v>44546</v>
+      </c>
+      <c r="C110" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="2">
+        <v>44554</v>
+      </c>
+      <c r="C111" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112" s="2">
+        <v>44571</v>
+      </c>
+      <c r="C112" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" s="2">
+        <v>44578</v>
+      </c>
+      <c r="C113" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" s="2">
+        <v>44579</v>
+      </c>
+      <c r="C114" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" s="2">
+        <v>44585</v>
+      </c>
+      <c r="C115" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>129</v>
+      </c>
+      <c r="B116" s="2">
+        <v>44592</v>
+      </c>
+      <c r="C116" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>109</v>
+      </c>
+      <c r="B117" s="2">
+        <v>44593</v>
+      </c>
+      <c r="C117" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118" s="2">
+        <v>44593</v>
+      </c>
+      <c r="C118" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>101</v>
+      </c>
+      <c r="B119" s="2">
+        <v>44594</v>
+      </c>
+      <c r="C119" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>114</v>
+      </c>
+      <c r="B120" s="2">
+        <v>44596</v>
+      </c>
+      <c r="C120" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" s="2">
+        <v>44596</v>
+      </c>
+      <c r="C121" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122" s="2">
+        <v>44602</v>
+      </c>
+      <c r="C122" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>113</v>
+      </c>
+      <c r="B123" s="2">
+        <v>44602</v>
+      </c>
+      <c r="C123" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" s="2">
+        <v>44606</v>
+      </c>
+      <c r="C124" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" s="2">
+        <v>44610</v>
+      </c>
+      <c r="C125" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>121</v>
+      </c>
+      <c r="B126" s="2">
+        <v>44614</v>
+      </c>
+      <c r="C126" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" s="2">
+        <v>44615</v>
+      </c>
+      <c r="C127" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>117</v>
+      </c>
+      <c r="B128" s="2">
+        <v>44617</v>
+      </c>
+      <c r="C128" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>138</v>
+      </c>
+      <c r="B129" s="2">
+        <v>44629</v>
+      </c>
+      <c r="C129" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" s="2">
+        <v>44630</v>
+      </c>
+      <c r="C130" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" s="2">
+        <v>44634</v>
+      </c>
+      <c r="C131" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="2">
+        <v>44638</v>
+      </c>
+      <c r="C132" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133" s="2">
+        <v>44650</v>
+      </c>
+      <c r="C133" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C134" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>145</v>
+      </c>
+      <c r="B135" s="2">
+        <v>44669</v>
+      </c>
+      <c r="C135" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" s="2">
+        <v>44676</v>
+      </c>
+      <c r="C136" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" s="2">
+        <v>44686</v>
+      </c>
+      <c r="C137" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138" s="2">
+        <v>44694</v>
+      </c>
+      <c r="C138" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>127</v>
+      </c>
+      <c r="B139" s="2">
+        <v>44701</v>
+      </c>
+      <c r="C139" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" s="2">
+        <v>44707</v>
+      </c>
+      <c r="C140" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>151</v>
+      </c>
+      <c r="B141" s="2">
+        <v>44733</v>
+      </c>
+      <c r="C141" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>160</v>
+      </c>
+      <c r="B142" s="2">
+        <v>44734</v>
+      </c>
+      <c r="C142" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>126</v>
+      </c>
+      <c r="B143" s="2">
+        <v>44735</v>
+      </c>
+      <c r="C143" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>154</v>
+      </c>
+      <c r="B144" s="2">
+        <v>44741</v>
+      </c>
+      <c r="C144" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>153</v>
+      </c>
+      <c r="B145" s="2">
+        <v>44743</v>
+      </c>
+      <c r="C145" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>162</v>
+      </c>
+      <c r="B146" s="2">
+        <v>44756</v>
+      </c>
+      <c r="C146" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C147" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>165</v>
+      </c>
+      <c r="B148" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C148" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>161</v>
+      </c>
+      <c r="B149" s="2">
+        <v>44774</v>
+      </c>
+      <c r="C149" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>159</v>
+      </c>
+      <c r="B150" s="2">
+        <v>44774</v>
+      </c>
+      <c r="C150" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>136</v>
+      </c>
+      <c r="B151" s="2">
+        <v>44778</v>
+      </c>
+      <c r="C151" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>168</v>
+      </c>
+      <c r="B152" s="2">
+        <v>44778</v>
+      </c>
+      <c r="C152" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" s="2">
+        <v>44798</v>
+      </c>
+      <c r="C153" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>167</v>
+      </c>
+      <c r="B154" s="2">
+        <v>44802</v>
+      </c>
+      <c r="C154" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>164</v>
+      </c>
+      <c r="B155" s="2">
+        <v>44816</v>
+      </c>
+      <c r="C155" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>132</v>
+      </c>
+      <c r="B156" s="2">
+        <v>44823</v>
+      </c>
+      <c r="C156" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>139</v>
+      </c>
+      <c r="B157" s="2">
+        <v>44826</v>
+      </c>
+      <c r="C157" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>163</v>
+      </c>
+      <c r="B158" s="2">
+        <v>44827</v>
+      </c>
+      <c r="C158" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>171</v>
+      </c>
+      <c r="B159" s="2">
+        <v>44827</v>
+      </c>
+      <c r="C159" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>175</v>
+      </c>
+      <c r="B160" s="2">
+        <v>44832</v>
+      </c>
+      <c r="C160" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>170</v>
+      </c>
+      <c r="B161" s="2">
+        <v>44837</v>
+      </c>
+      <c r="C161" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>148</v>
+      </c>
+      <c r="B162" s="2">
+        <v>44838</v>
+      </c>
+      <c r="C162" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>156</v>
+      </c>
+      <c r="B163" s="2">
+        <v>44840</v>
+      </c>
+      <c r="C163" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>149</v>
+      </c>
+      <c r="B164" s="2">
+        <v>44845</v>
+      </c>
+      <c r="C164" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>147</v>
+      </c>
+      <c r="B165" s="2">
+        <v>44846</v>
+      </c>
+      <c r="C165" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>174</v>
+      </c>
+      <c r="B166" s="2">
+        <v>44847</v>
+      </c>
+      <c r="C166" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>158</v>
+      </c>
+      <c r="B167" s="2">
+        <v>44861</v>
+      </c>
+      <c r="C167" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>146</v>
+      </c>
+      <c r="B168" s="2">
+        <v>44869</v>
+      </c>
+      <c r="C168" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169" s="2">
+        <v>44873</v>
+      </c>
+      <c r="C169" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>157</v>
+      </c>
+      <c r="B170" s="2">
+        <v>44875</v>
+      </c>
+      <c r="C170" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>166</v>
+      </c>
+      <c r="B171" s="2">
+        <v>44876</v>
+      </c>
+      <c r="C171" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172" s="2">
+        <v>44879</v>
+      </c>
+      <c r="C172" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>180</v>
+      </c>
+      <c r="B173" s="2">
+        <v>44886</v>
+      </c>
+      <c r="C173" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" s="2">
+        <v>44895</v>
+      </c>
+      <c r="C174" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>181</v>
+      </c>
+      <c r="B175" s="2">
+        <v>44896</v>
+      </c>
+      <c r="C175" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>116</v>
+      </c>
+      <c r="B176" s="2">
+        <v>44900</v>
+      </c>
+      <c r="C176" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>169</v>
+      </c>
+      <c r="B177" s="2">
+        <v>44902</v>
+      </c>
+      <c r="C177" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>152</v>
+      </c>
+      <c r="B178" s="2">
+        <v>44907</v>
+      </c>
+      <c r="C178" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>176</v>
+      </c>
+      <c r="B179" s="2">
+        <v>44907</v>
+      </c>
+      <c r="C179" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>172</v>
+      </c>
+      <c r="B180" s="2">
+        <v>44909</v>
+      </c>
+      <c r="C180" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>195</v>
+      </c>
+      <c r="B181" s="2">
+        <v>44949</v>
+      </c>
+      <c r="C181" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>200</v>
+      </c>
+      <c r="B182" s="2">
+        <v>44952</v>
+      </c>
+      <c r="C182" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183" s="2">
+        <v>44956</v>
+      </c>
+      <c r="C183" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>207</v>
+      </c>
+      <c r="B184" s="2">
+        <v>44956</v>
+      </c>
+      <c r="C184" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>204</v>
+      </c>
+      <c r="B185" s="2">
+        <v>44959</v>
+      </c>
+      <c r="C185" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>182</v>
+      </c>
+      <c r="B186" s="2">
+        <v>44960</v>
+      </c>
+      <c r="C186" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>183</v>
+      </c>
+      <c r="B187" s="2">
+        <v>44963</v>
+      </c>
+      <c r="C187" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>120</v>
+      </c>
+      <c r="B188" s="2">
+        <v>44963</v>
+      </c>
+      <c r="C188" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>179</v>
+      </c>
+      <c r="B189" s="2">
+        <v>44963</v>
+      </c>
+      <c r="C189" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>184</v>
+      </c>
+      <c r="B190" s="2">
+        <v>44965</v>
+      </c>
+      <c r="C190" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>196</v>
+      </c>
+      <c r="B191" s="2">
+        <v>44965</v>
+      </c>
+      <c r="C191" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>205</v>
+      </c>
+      <c r="B192" s="2">
+        <v>44985</v>
+      </c>
+      <c r="C192" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193" s="2">
+        <v>44986</v>
+      </c>
+      <c r="C193" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>211</v>
+      </c>
+      <c r="B194" s="2">
+        <v>44992</v>
+      </c>
+      <c r="C194" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>188</v>
+      </c>
+      <c r="B195" s="2">
+        <v>44992</v>
+      </c>
+      <c r="C195" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>201</v>
+      </c>
+      <c r="B196" s="2">
+        <v>44994</v>
+      </c>
+      <c r="C196" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>202</v>
+      </c>
+      <c r="B197" s="2">
+        <v>45009</v>
+      </c>
+      <c r="C197" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>185</v>
+      </c>
+      <c r="B198" s="2">
+        <v>45014</v>
+      </c>
+      <c r="C198" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>212</v>
+      </c>
+      <c r="B199" s="2">
+        <v>45021</v>
+      </c>
+      <c r="C199" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>213</v>
+      </c>
+      <c r="B200" s="2">
+        <v>45023</v>
+      </c>
+      <c r="C200" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>191</v>
+      </c>
+      <c r="B201" s="2">
+        <v>45027</v>
+      </c>
+      <c r="C201" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>190</v>
+      </c>
+      <c r="B202" s="2">
+        <v>45029</v>
+      </c>
+      <c r="C202" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>197</v>
+      </c>
+      <c r="B203" s="2">
+        <v>45035</v>
+      </c>
+      <c r="C203" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>210</v>
+      </c>
+      <c r="B204" s="2">
+        <v>45043</v>
+      </c>
+      <c r="C204" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205" s="2">
+        <v>45044</v>
+      </c>
+      <c r="C205" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>189</v>
+      </c>
+      <c r="B206" s="2">
+        <v>45050</v>
+      </c>
+      <c r="C206" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>203</v>
+      </c>
+      <c r="B207" s="2">
+        <v>45051</v>
+      </c>
+      <c r="C207" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>199</v>
+      </c>
+      <c r="B208" s="2">
+        <v>45057</v>
+      </c>
+      <c r="C208" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>215</v>
+      </c>
+      <c r="B209" s="2">
+        <v>45058</v>
+      </c>
+      <c r="C209" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>218</v>
+      </c>
+      <c r="B210" s="2">
+        <v>45061</v>
+      </c>
+      <c r="C210" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>216</v>
+      </c>
+      <c r="B211" s="2">
+        <v>45064</v>
+      </c>
+      <c r="C211" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>209</v>
+      </c>
+      <c r="B212" s="2">
+        <v>45075</v>
+      </c>
+      <c r="C212" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>208</v>
+      </c>
+      <c r="B213" s="2">
+        <v>45077</v>
+      </c>
+      <c r="C213" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>220</v>
+      </c>
+      <c r="B214" s="2">
+        <v>45083</v>
+      </c>
+      <c r="C214" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>219</v>
+      </c>
+      <c r="B215" s="2">
+        <v>45089</v>
+      </c>
+      <c r="C215" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>192</v>
+      </c>
+      <c r="B216" s="2">
+        <v>45091</v>
+      </c>
+      <c r="C216" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>221</v>
+      </c>
+      <c r="B217" s="2">
+        <v>45132</v>
+      </c>
+      <c r="C217" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>194</v>
+      </c>
+      <c r="B218" s="2">
+        <v>45147</v>
+      </c>
+      <c r="C218" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>193</v>
+      </c>
+      <c r="B219" s="2">
+        <v>45152</v>
+      </c>
+      <c r="C219" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>224</v>
+      </c>
+      <c r="B220" s="2">
+        <v>45173</v>
+      </c>
+      <c r="C220" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>226</v>
+      </c>
+      <c r="B221" s="2">
+        <v>45175</v>
+      </c>
+      <c r="C221" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>214</v>
+      </c>
+      <c r="B222" s="2">
+        <v>45184</v>
+      </c>
+      <c r="C222" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" s="2">
+        <v>45195</v>
+      </c>
+      <c r="C223" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" s="2">
+        <v>45196</v>
+      </c>
+      <c r="C224" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>217</v>
+      </c>
+      <c r="B225" s="2">
+        <v>45209</v>
+      </c>
+      <c r="C225" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>187</v>
+      </c>
+      <c r="B226" s="2">
+        <v>45216</v>
+      </c>
+      <c r="C226" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>223</v>
+      </c>
+      <c r="B227" s="2">
+        <v>45302</v>
+      </c>
+      <c r="C227" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>233</v>
+      </c>
+      <c r="B228" s="2">
+        <v>45383</v>
+      </c>
+      <c r="C228" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229" s="2">
+        <v>45387</v>
+      </c>
+      <c r="C229" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>235</v>
+      </c>
+      <c r="B230" s="2">
+        <v>45412</v>
+      </c>
+      <c r="C230" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>227</v>
+      </c>
+      <c r="B231" s="2">
+        <v>45414</v>
+      </c>
+      <c r="C231" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>251</v>
+      </c>
+      <c r="B232" s="2">
+        <v>45429</v>
+      </c>
+      <c r="C232" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>240</v>
+      </c>
+      <c r="B233" s="2">
+        <v>45440</v>
+      </c>
+      <c r="C233" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>236</v>
+      </c>
+      <c r="B234" s="2">
+        <v>45440</v>
+      </c>
+      <c r="C234" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>239</v>
+      </c>
+      <c r="B235" s="2">
+        <v>45440</v>
+      </c>
+      <c r="C235" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>248</v>
+      </c>
+      <c r="B236" s="2">
+        <v>45446</v>
+      </c>
+      <c r="C236" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>247</v>
+      </c>
+      <c r="B237" s="2">
+        <v>45446</v>
+      </c>
+      <c r="C237" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>243</v>
+      </c>
+      <c r="B238" s="2">
+        <v>45446</v>
+      </c>
+      <c r="C238" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>231</v>
+      </c>
+      <c r="B239" s="2">
+        <v>45446</v>
+      </c>
+      <c r="C239" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>245</v>
+      </c>
+      <c r="B240" s="2">
+        <v>45446</v>
+      </c>
+      <c r="C240" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>250</v>
+      </c>
+      <c r="B241" s="2">
+        <v>45447</v>
+      </c>
+      <c r="C241" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>249</v>
+      </c>
+      <c r="B242" s="2">
+        <v>45447</v>
+      </c>
+      <c r="C242" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2">
+        <v>45448</v>
+      </c>
+      <c r="C243" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>252</v>
+      </c>
+      <c r="B244" s="2">
+        <v>45449</v>
+      </c>
+      <c r="C244" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>242</v>
+      </c>
+      <c r="B245" s="2">
+        <v>45453</v>
+      </c>
+      <c r="C245" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>237</v>
+      </c>
+      <c r="B246" s="2">
+        <v>45456</v>
+      </c>
+      <c r="C246" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>234</v>
+      </c>
+      <c r="B247" s="2">
         <v>45457</v>
       </c>
-      <c r="C34" t="s">
-        <v>64</v>
+      <c r="C247" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>244</v>
+      </c>
+      <c r="B248" s="2">
+        <v>45467</v>
+      </c>
+      <c r="C248" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>246</v>
+      </c>
+      <c r="B249" s="2">
+        <v>45482</v>
+      </c>
+      <c r="C249" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>238</v>
+      </c>
+      <c r="B250" s="2">
+        <v>45509</v>
+      </c>
+      <c r="C250" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>229</v>
+      </c>
+      <c r="B251" s="2">
+        <v>45509</v>
+      </c>
+      <c r="C251" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>232</v>
+      </c>
+      <c r="B252" s="2">
+        <v>45516</v>
+      </c>
+      <c r="C252" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>228</v>
+      </c>
+      <c r="B253" s="2">
+        <v>45548</v>
+      </c>
+      <c r="C253" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254" s="2">
+        <v>45747</v>
+      </c>
+      <c r="C254" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>253</v>
+      </c>
+      <c r="B255" s="2">
+        <v>45757</v>
+      </c>
+      <c r="C255" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -1165,24 +5793,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>429</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>432</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
